--- a/medicine/Enfance/Linda_Ferri/Linda_Ferri.xlsx
+++ b/medicine/Enfance/Linda_Ferri/Linda_Ferri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Linda Ferri (née en 1957 à Rome ) est une auteure et scénariste italienne.
 </t>
@@ -511,28 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Linda Ferri est née à Rome d'une mère américaine et d'un père italien. Elle a passé  ses premières années à Paris où elle  est diplômée en sciences politiques puis elle étudie la philosophie à l’Université Columbia de New York. Elle a  obtenu un diplôme en philosophie de l'histoire à Florence[1].
-Elle a travaillé  dans l'industrie de l'écriture, publiant des travaux en tant que traducteur et éditeur de littérature étrangère[2].
-Au cinéma
-Linda Ferri est une auteure, connue pour son travail de scénariste. Elle co-écrit en 1998 avec Marco et Luca Mazzieri le scénario Voglia una donnaaa ! ; en 2001, l'histoire et le scénario [3] de La stanza del figlio (La chambre du fils) réalisé par Nanni Moretti ; la même année, Luce dei mei Occhi (La lumière de mes yeux) et La Vita che Vorrei (La vie que je veux ) réalisé par Giuseppe Piccioni en 2004.
-En 2006, Ferri a co-écrit Anche Libero Va Bene (Le long de la crête) , réalisé par Kim Rossi Stuart.
-Publications
-Romans
-Incantesimi, Milan, Feltrinelli, 1997  (ISBN 88-07-70084-0) ( Enchantements : traduit en français par Marilène Raiola e Joël Gayraud, Paris, Mille et une nuits, 2000)
-Cecilia, Rome, E/O, 2009  (ISBN 978-88-7641-851-8)[4].
-Nouvelles
-Il tempo che resta, Milan, Feltrinelli, 2001  (ISBN 88-07-01592-7)
-Romans pour enfants
-Cucciolo dei miei sogni , Rome, E/O, 2004  (ISBN 88-7641-629-3)
-Tutto il respiro del mondo, Rome, Lapis, 2004  (ISBN 88-87546-75-4)
-La ballerina cosmica, Milan, Salani, 2013  (ISBN 978-88-6715-119-6)
-Curatelle
-Arcana Scheiwiller: gli archivi di un editore, Milan, Scheiwiller, 1987  (ISBN 88-7644-091-7)
-Traductions
-Ritratti carnivori di Věra Linhartová, Rome, E/O, 1987  (ISBN 88-7641-048-1)
-Finestre di Jean-Bertrand Pontalis, Rome, E/O, 2001  (ISBN 88-7641-451-7)</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Linda Ferri est née à Rome d'une mère américaine et d'un père italien. Elle a passé  ses premières années à Paris où elle  est diplômée en sciences politiques puis elle étudie la philosophie à l’Université Columbia de New York. Elle a  obtenu un diplôme en philosophie de l'histoire à Florence.
+Elle a travaillé  dans l'industrie de l'écriture, publiant des travaux en tant que traducteur et éditeur de littérature étrangère.
+</t>
         </is>
       </c>
     </row>
@@ -557,10 +554,234 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Linda Ferri est une auteure, connue pour son travail de scénariste. Elle co-écrit en 1998 avec Marco et Luca Mazzieri le scénario Voglia una donnaaa ! ; en 2001, l'histoire et le scénario  de La stanza del figlio (La chambre du fils) réalisé par Nanni Moretti ; la même année, Luce dei mei Occhi (La lumière de mes yeux) et La Vita che Vorrei (La vie que je veux ) réalisé par Giuseppe Piccioni en 2004.
+En 2006, Ferri a co-écrit Anche Libero Va Bene (Le long de la crête) , réalisé par Kim Rossi Stuart.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Linda_Ferri</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linda_Ferri</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Incantesimi, Milan, Feltrinelli, 1997  (ISBN 88-07-70084-0) ( Enchantements : traduit en français par Marilène Raiola e Joël Gayraud, Paris, Mille et une nuits, 2000)
+Cecilia, Rome, E/O, 2009  (ISBN 978-88-7641-851-8).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Linda_Ferri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linda_Ferri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il tempo che resta, Milan, Feltrinelli, 2001  (ISBN 88-07-01592-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Linda_Ferri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linda_Ferri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans pour enfants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cucciolo dei miei sogni , Rome, E/O, 2004  (ISBN 88-7641-629-3)
+Tutto il respiro del mondo, Rome, Lapis, 2004  (ISBN 88-87546-75-4)
+La ballerina cosmica, Milan, Salani, 2013  (ISBN 978-88-6715-119-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Linda_Ferri</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linda_Ferri</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Curatelle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Arcana Scheiwiller: gli archivi di un editore, Milan, Scheiwiller, 1987  (ISBN 88-7644-091-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Linda_Ferri</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linda_Ferri</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ritratti carnivori di Věra Linhartová, Rome, E/O, 1987  (ISBN 88-7641-048-1)
+Finestre di Jean-Bertrand Pontalis, Rome, E/O, 2001  (ISBN 88-7641-451-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Linda_Ferri</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linda_Ferri</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>En tant que scénariste
 1998 : Voglio une donnaaa ! réalisé par Luca Mazzieri, Marco Mazzieri
@@ -574,31 +795,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Linda_Ferri</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Linda_Ferri</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Linda_Ferri</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linda_Ferri</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
